--- a/xlsx/latsenrom_horse_terms_relative_counts.xlsx
+++ b/xlsx/latsenrom_horse_terms_relative_counts.xlsx
@@ -142,7 +142,7 @@
     <t>līnijrati</t>
   </si>
   <si>
-    <t xml:space="preserve">melnis </t>
+    <t>melnis</t>
   </si>
   <si>
     <t>omnibuss</t>
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>19.2857</v>
+        <v>17.8571</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>50</v>
       </c>
       <c r="AT2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.571400000000001</v>
+        <v>7.1429</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>14.7619</v>
+        <v>13.3333</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>100</v>
+        <v>33.3333</v>
       </c>
       <c r="AU4">
-        <v>33.3333</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>8.571400000000001</v>
+        <v>7.1429</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>11.9048</v>
+        <v>10.4762</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>33.3333</v>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>22.8571</v>
+        <v>21.4286</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>12.8571</v>
+        <v>11.4286</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>100</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>24.2857</v>
+        <v>22.8571</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>16.4286</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>100</v>
@@ -3035,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>7.8571</v>
+        <v>6.4286</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>14.7619</v>
+        <v>13.8095</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>100</v>
+        <v>33.3333</v>
       </c>
       <c r="AU13">
         <v>66.66670000000001</v>
@@ -3477,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>12.8571</v>
+        <v>12.1429</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AU14">
         <v>100</v>
@@ -3698,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>8.571400000000001</v>
+        <v>6.6667</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>66.66670000000001</v>
+        <v>33.3333</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="AT15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>5.2381</v>
+        <v>3.8095</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="AT16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>66.66670000000001</v>
@@ -4140,7 +4140,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>7.5</v>
+        <v>6.4286</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AU17">
         <v>25</v>
@@ -4361,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>9.2857</v>
+        <v>7.8571</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="AT18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>50</v>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>11.4286</v>
+        <v>10.4762</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="AT19">
-        <v>100</v>
+        <v>33.3333</v>
       </c>
       <c r="AU19">
         <v>33.3333</v>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>13.8095</v>
+        <v>12.8571</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>16.6667</v>
       </c>
       <c r="AT20">
-        <v>100</v>
+        <v>33.3333</v>
       </c>
       <c r="AU20">
         <v>66.66670000000001</v>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19.2857</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="AT21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AU21">
         <v>100</v>
@@ -5245,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>12.8571</v>
+        <v>12.1429</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AU22">
         <v>50</v>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>12.8571</v>
+        <v>11.4286</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AT24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU24">
         <v>100</v>
@@ -5908,7 +5908,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>14.6429</v>
+        <v>14.2857</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="AT25">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AU25">
         <v>75</v>
@@ -6129,7 +6129,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>10.2857</v>
+        <v>9.142899999999999</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>26.6667</v>
+        <v>20</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -6258,10 +6258,10 @@
         <v>0</v>
       </c>
       <c r="AT26">
-        <v>93.33329999999999</v>
+        <v>26.6667</v>
       </c>
       <c r="AU26">
-        <v>46.6667</v>
+        <v>40</v>
       </c>
       <c r="AV26">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>15.7143</v>
+        <v>14.9206</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="AT27">
-        <v>100</v>
+        <v>44.4444</v>
       </c>
       <c r="AU27">
         <v>55.5556</v>
@@ -6571,7 +6571,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>11.2245</v>
+        <v>9.7959</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>42.8571</v>
       </c>
       <c r="AF28">
-        <v>28.5714</v>
+        <v>14.2857</v>
       </c>
       <c r="AG28">
         <v>14.2857</v>
@@ -6700,7 +6700,7 @@
         <v>14.2857</v>
       </c>
       <c r="AT28">
-        <v>100</v>
+        <v>14.2857</v>
       </c>
       <c r="AU28">
         <v>28.5714</v>
@@ -6792,7 +6792,7 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>10.4762</v>
+        <v>9.238099999999999</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>6.6667</v>
       </c>
       <c r="U29">
-        <v>13.3333</v>
+        <v>6.6667</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>33.3333</v>
       </c>
       <c r="AF29">
-        <v>20</v>
+        <v>13.3333</v>
       </c>
       <c r="AG29">
         <v>20</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>6.6667</v>
+        <v>0</v>
       </c>
       <c r="AK29">
         <v>46.6667</v>
@@ -6921,7 +6921,7 @@
         <v>6.6667</v>
       </c>
       <c r="AT29">
-        <v>100</v>
+        <v>33.3333</v>
       </c>
       <c r="AU29">
         <v>53.3333</v>
@@ -7013,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>9.591799999999999</v>
+        <v>8.3673</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>14.2857</v>
       </c>
       <c r="AT30">
-        <v>100</v>
+        <v>14.2857</v>
       </c>
       <c r="AU30">
         <v>71.4286</v>
@@ -7234,7 +7234,7 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>13.0252</v>
+        <v>12.0168</v>
       </c>
       <c r="D31">
         <v>5.8824</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>29.4118</v>
+        <v>23.5294</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="AT31">
-        <v>100</v>
+        <v>41.1765</v>
       </c>
       <c r="AU31">
         <v>35.2941</v>
@@ -7408,7 +7408,7 @@
         <v>11.7647</v>
       </c>
       <c r="BI31">
-        <v>5.8824</v>
+        <v>0</v>
       </c>
       <c r="BJ31">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>12.5893</v>
+        <v>11.25</v>
       </c>
       <c r="D32">
         <v>6.25</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>25</v>
+        <v>18.75</v>
       </c>
       <c r="AN32">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AU32">
         <v>62.5</v>
@@ -7676,7 +7676,7 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>13.0252</v>
+        <v>11.9328</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AT33">
-        <v>100</v>
+        <v>23.5294</v>
       </c>
       <c r="AU33">
         <v>58.8235</v>
@@ -7897,7 +7897,7 @@
         <v>17</v>
       </c>
       <c r="C34">
-        <v>10.7563</v>
+        <v>9.6639</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>11.7647</v>
+        <v>5.8824</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="AT34">
-        <v>100</v>
+        <v>29.4118</v>
       </c>
       <c r="AU34">
         <v>41.1765</v>
@@ -8118,7 +8118,7 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>10.8844</v>
+        <v>9.591799999999999</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AT35">
-        <v>100</v>
+        <v>9.5238</v>
       </c>
       <c r="AU35">
         <v>47.619</v>
@@ -8339,7 +8339,7 @@
         <v>23</v>
       </c>
       <c r="C36">
-        <v>10.8696</v>
+        <v>9.441000000000001</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>26.087</v>
+        <v>21.7391</v>
       </c>
       <c r="H36">
         <v>8.6957</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>13.0435</v>
+        <v>8.6957</v>
       </c>
       <c r="V36">
         <v>4.3478</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="AT36">
-        <v>100</v>
+        <v>17.3913</v>
       </c>
       <c r="AU36">
-        <v>47.8261</v>
+        <v>43.4783</v>
       </c>
       <c r="AV36">
         <v>0</v>
@@ -8525,7 +8525,7 @@
         <v>21.7391</v>
       </c>
       <c r="BM36">
-        <v>13.0435</v>
+        <v>8.6957</v>
       </c>
       <c r="BN36">
         <v>17.3913</v>
@@ -8560,7 +8560,7 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <v>11.619</v>
+        <v>10.381</v>
       </c>
       <c r="D37">
         <v>6.6667</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="AT37">
-        <v>100</v>
+        <v>13.3333</v>
       </c>
       <c r="AU37">
         <v>46.6667</v>
@@ -8781,7 +8781,7 @@
         <v>24</v>
       </c>
       <c r="C38">
-        <v>13.75</v>
+        <v>12.6786</v>
       </c>
       <c r="D38">
         <v>4.1667</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="AT38">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AU38">
         <v>41.6667</v>
@@ -9002,7 +9002,7 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>10.8271</v>
+        <v>9.849600000000001</v>
       </c>
       <c r="D39">
         <v>10.5263</v>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>21.0526</v>
+        <v>15.7895</v>
       </c>
       <c r="V39">
         <v>10.5263</v>
@@ -9089,10 +9089,10 @@
         <v>36.8421</v>
       </c>
       <c r="AF39">
-        <v>21.0526</v>
+        <v>15.7895</v>
       </c>
       <c r="AG39">
-        <v>5.2632</v>
+        <v>0</v>
       </c>
       <c r="AH39">
         <v>5.2632</v>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="AT39">
-        <v>100</v>
+        <v>47.3684</v>
       </c>
       <c r="AU39">
         <v>21.0526</v>
@@ -9223,7 +9223,7 @@
         <v>36</v>
       </c>
       <c r="C40">
-        <v>10.6746</v>
+        <v>9.2857</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>38.8889</v>
+        <v>36.1111</v>
       </c>
       <c r="H40">
         <v>5.5556</v>
@@ -9313,7 +9313,7 @@
         <v>22.2222</v>
       </c>
       <c r="AG40">
-        <v>5.5556</v>
+        <v>2.7778</v>
       </c>
       <c r="AH40">
         <v>2.7778</v>
@@ -9352,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="AT40">
-        <v>100</v>
+        <v>13.8889</v>
       </c>
       <c r="AU40">
-        <v>25</v>
+        <v>22.2222</v>
       </c>
       <c r="AV40">
         <v>0</v>
@@ -9391,7 +9391,7 @@
         <v>2.7778</v>
       </c>
       <c r="BG40">
-        <v>2.7778</v>
+        <v>0</v>
       </c>
       <c r="BH40">
         <v>11.1111</v>
@@ -9444,7 +9444,7 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>12.3175</v>
+        <v>10.9841</v>
       </c>
       <c r="D41">
         <v>4.4444</v>
@@ -9498,7 +9498,7 @@
         <v>2.2222</v>
       </c>
       <c r="U41">
-        <v>20</v>
+        <v>11.1111</v>
       </c>
       <c r="V41">
         <v>2.2222</v>
@@ -9573,10 +9573,10 @@
         <v>4.4444</v>
       </c>
       <c r="AT41">
-        <v>100</v>
+        <v>22.2222</v>
       </c>
       <c r="AU41">
-        <v>51.1111</v>
+        <v>44.4444</v>
       </c>
       <c r="AV41">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>27</v>
       </c>
       <c r="C42">
-        <v>13.1746</v>
+        <v>12.0635</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>11.1111</v>
+        <v>7.4074</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>51.8519</v>
       </c>
       <c r="AF42">
-        <v>29.6296</v>
+        <v>25.9259</v>
       </c>
       <c r="AG42">
         <v>11.1111</v>
@@ -9794,10 +9794,10 @@
         <v>0</v>
       </c>
       <c r="AT42">
-        <v>100</v>
+        <v>33.3333</v>
       </c>
       <c r="AU42">
-        <v>37.037</v>
+        <v>33.3333</v>
       </c>
       <c r="AV42">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>36</v>
       </c>
       <c r="C43">
-        <v>12.7778</v>
+        <v>11.9444</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -10015,10 +10015,10 @@
         <v>0</v>
       </c>
       <c r="AT43">
-        <v>100</v>
+        <v>47.2222</v>
       </c>
       <c r="AU43">
-        <v>22.2222</v>
+        <v>19.4444</v>
       </c>
       <c r="AV43">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>2.7778</v>
       </c>
       <c r="BL43">
-        <v>19.4444</v>
+        <v>16.6667</v>
       </c>
       <c r="BM43">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>11.8519</v>
+        <v>10.4233</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -10161,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>7.4074</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>3.7037</v>
@@ -10194,7 +10194,7 @@
         <v>51.8519</v>
       </c>
       <c r="AF44">
-        <v>22.2222</v>
+        <v>18.5185</v>
       </c>
       <c r="AG44">
         <v>7.4074</v>
@@ -10236,10 +10236,10 @@
         <v>0</v>
       </c>
       <c r="AT44">
-        <v>100</v>
+        <v>14.8148</v>
       </c>
       <c r="AU44">
-        <v>40.7407</v>
+        <v>37.037</v>
       </c>
       <c r="AV44">
         <v>0</v>
@@ -10328,7 +10328,7 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>10.3571</v>
+        <v>8.928599999999999</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="AT45">
-        <v>100</v>
+        <v>6.25</v>
       </c>
       <c r="AU45">
         <v>25</v>
